--- a/PREGAME/1. ELICITACION/1.6 Backlog/G4_Backlog_V.2.0.xlsx
+++ b/PREGAME/1. ELICITACION/1.6 Backlog/G4_Backlog_V.2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jenny\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD3AB2C-5964-4945-8185-A66D232F60F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1325B305-7A92-4442-A00C-884A621A3DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -18,21 +18,11 @@
     <sheet name="burdonchart" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="85">
   <si>
     <t>Tema</t>
   </si>
@@ -58,18 +48,6 @@
     <t>REQ001</t>
   </si>
   <si>
-    <t>Crear cuenta de inicio de sesión</t>
-  </si>
-  <si>
-    <t>Personal/Administrador</t>
-  </si>
-  <si>
-    <t>Crear usuario y contraseña</t>
-  </si>
-  <si>
-    <t>Iniciar sesión y gestionar la informacion del sistema</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
@@ -79,30 +57,15 @@
     <t>REQ002</t>
   </si>
   <si>
-    <t>Acceso al aplicativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal </t>
-  </si>
-  <si>
     <t>Iniciar sesión</t>
   </si>
   <si>
-    <t>Gestionar la informacion de los empleados</t>
-  </si>
-  <si>
     <t>REQ003</t>
   </si>
   <si>
-    <t>Mostrar nómina de registros</t>
-  </si>
-  <si>
     <t>Administrador</t>
   </si>
   <si>
-    <t>Visualizar el registro de empleados</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -118,9 +81,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Terminada</t>
-  </si>
-  <si>
     <t>Tareas</t>
   </si>
   <si>
@@ -133,12 +93,6 @@
     <t>REQ001-1</t>
   </si>
   <si>
-    <t>Crear un formulario para crear una cuenta.</t>
-  </si>
-  <si>
-    <t>David Reyes</t>
-  </si>
-  <si>
     <t>REQ001-2</t>
   </si>
   <si>
@@ -151,9 +105,6 @@
     <t>Confirmacion de registro de cuentas</t>
   </si>
   <si>
-    <t>En proceso</t>
-  </si>
-  <si>
     <t>REQ002-1</t>
   </si>
   <si>
@@ -163,19 +114,10 @@
     <t>REQ002-2</t>
   </si>
   <si>
-    <t>Validación de credenciales.</t>
-  </si>
-  <si>
     <t>REQ003-1</t>
   </si>
   <si>
-    <t>Crear una tabla en html</t>
-  </si>
-  <si>
     <t>REQ003-2</t>
-  </si>
-  <si>
-    <t>Recoger informacion de la bdd y mostrar en la tabla</t>
   </si>
   <si>
     <t>Dia 7</t>
@@ -207,13 +149,143 @@
   <si>
     <t>Horas Estimadas
 Restantes</t>
+  </si>
+  <si>
+    <t>Crear usuario/email y contraseña</t>
+  </si>
+  <si>
+    <t>Crear cuenta para iniciar sesión</t>
+  </si>
+  <si>
+    <t>Iniciar sesión y gestionar el catálogo de productos</t>
+  </si>
+  <si>
+    <t>Registrar productos</t>
+  </si>
+  <si>
+    <t>Registrar un nuevo producto en el catálogo online</t>
+  </si>
+  <si>
+    <t>Eliminar productos</t>
+  </si>
+  <si>
+    <t>Eliminar un producto del catálogo online</t>
+  </si>
+  <si>
+    <t>REQ004</t>
+  </si>
+  <si>
+    <t>Acceder a la página web</t>
+  </si>
+  <si>
+    <t>Ingresar usuario/email y contraseña</t>
+  </si>
+  <si>
+    <t>Crear un formulario para registrar una nueva cuenta de administrador</t>
+  </si>
+  <si>
+    <t>Freddy Páez</t>
+  </si>
+  <si>
+    <t>Jorge Ramos</t>
+  </si>
+  <si>
+    <t>Gestionar los productos del emprendimiento</t>
+  </si>
+  <si>
+    <t>Validación de credenciales (usuario/email y contraseña).</t>
+  </si>
+  <si>
+    <t>REQ002-3</t>
+  </si>
+  <si>
+    <t>Ingresar credenciales (usuario/email y contraseña).</t>
+  </si>
+  <si>
+    <t>Crear un formulario para el registro de un nuevo producto</t>
+  </si>
+  <si>
+    <t>Ingresar los datos o información del producto a registrar</t>
+  </si>
+  <si>
+    <t>REQ003-3</t>
+  </si>
+  <si>
+    <t>Verificar el registro del producto en la bdd y en el catálogo</t>
+  </si>
+  <si>
+    <t>Dennis Parra</t>
+  </si>
+  <si>
+    <t>Crear una página con una tabla de todos los productos registrados</t>
+  </si>
+  <si>
+    <t>Verificar eliminación de la base de datos y del catálogo</t>
+  </si>
+  <si>
+    <t>REQ004-1</t>
+  </si>
+  <si>
+    <t>REQ004-2</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Conclusión:</t>
+  </si>
+  <si>
+    <t>Referencias:</t>
+  </si>
+  <si>
+    <t>[1] Garrido, G. R. (2022, 18 abril). Burndown Chart (Scrum): qué es, cómo hacer uno y ejemplos. Profile Software Services. https://profile.es/blog/burndown-chart/ 
+[2] Ramos, J. (s. f.). Scrum: ¿Qué es el Burndown Chart? Programación y más. https://programacionymas.com/blog/scrum-burndown-chart</t>
+  </si>
+  <si>
+    <t>REQ005</t>
+  </si>
+  <si>
+    <t>REQ006</t>
+  </si>
+  <si>
+    <t>Mostrar catalogo</t>
+  </si>
+  <si>
+    <t>Crear categorias</t>
+  </si>
+  <si>
+    <t>Iniciar sesión y gestionar las categorias de productos</t>
+  </si>
+  <si>
+    <t>Freddy Paez</t>
+  </si>
+  <si>
+    <t>Crear un formulario para registro de categorias</t>
+  </si>
+  <si>
+    <t>Verificar creacion de categorias</t>
+  </si>
+  <si>
+    <t>REQ005-1</t>
+  </si>
+  <si>
+    <t>REQ006-1</t>
+  </si>
+  <si>
+    <t>REQ006-2</t>
+  </si>
+  <si>
+    <t>RE1006-1</t>
+  </si>
+  <si>
+    <t>En una nueva version de Backlog se puede evidenciar que, el tiempo de desarrollo de 2 nuevos requisitos se han cumplido dentro del tiempo establecido. Permitiendo continuar con el avance del proyecto de una forma adecuada y tranquila'.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -235,11 +307,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <sz val="10"/>
@@ -293,8 +360,70 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,7 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,75 +535,95 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,7 +726,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>burdonchart!$B$13:$J$13</c:f>
+              <c:f>burdonchart!$B$19:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -579,28 +734,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -627,7 +782,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>burdonchart!$B$14:$J$14</c:f>
+              <c:f>burdonchart!$B$20:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -635,28 +790,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.428571428571429</c:v>
+                  <c:v>27.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.857142857142858</c:v>
+                  <c:v>22.857142857142861</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.285714285714286</c:v>
+                  <c:v>18.285714285714292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7142857142857153</c:v>
+                  <c:v>13.714285714285721</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1428571428571441</c:v>
+                  <c:v>9.1428571428571495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5714285714285725</c:v>
+                  <c:v>4.5714285714285783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7.1054273576010019E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -842,10 +997,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>436684</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71803</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -875,26 +1030,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="K4:K10" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="K4:K12" headerRowCount="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1">
+      <calculatedColumnFormula>SUM(D4:J4)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="burdonchart-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="I9:J10" headerRowCount="0">
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2"/>
-  </tableColumns>
-  <tableStyleInfo name="burdonchart-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1099,25 +1241,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" zoomScale="87" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
-        <v>23</v>
+      <c r="A1" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1142,96 +1284,143 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="A7" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -1242,7 +1431,15 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2234,9 +2431,11 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.11811023622047245" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
+  <pageSetup paperSize="5" scale="80" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2245,25 +2444,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:I1000"/>
+  <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -2272,118 +2473,129 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="30" t="str">
+        <f>VLOOKUP(Backlog!A2,Backlog!A2:H5,1,0)</f>
+        <v>REQ001</v>
+      </c>
+      <c r="C4" s="30" t="str">
+        <f>VLOOKUP(Backlog!B2,Backlog!B2:I5,1,0)</f>
+        <v>Crear cuenta para iniciar sesión</v>
+      </c>
+      <c r="D4" s="30" t="str">
+        <f>VLOOKUP(Backlog!C2,Backlog!C2:J5,1,0)</f>
+        <v>Administrador</v>
+      </c>
+      <c r="E4" s="30" t="str">
+        <f>VLOOKUP(Backlog!D2,Backlog!D2:K5,1,0)</f>
+        <v>Crear usuario/email y contraseña</v>
+      </c>
+      <c r="F4" s="30" t="str">
+        <f>VLOOKUP(Backlog!E2,Backlog!E2:L5,1,0)</f>
+        <v>Iniciar sesión y gestionar el catálogo de productos</v>
+      </c>
+      <c r="G4" s="30" t="e">
+        <f>VLOOKUP(Backlog!F2,Backlog!F2:M5,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H4" s="30" t="str">
+        <f>VLOOKUP(Backlog!G2,Backlog!G2:N5,1,0)</f>
+        <v>Alta</v>
+      </c>
+      <c r="I4" s="30" t="str">
+        <f>VLOOKUP(Backlog!H2,Backlog!H2:O5,1,0)</f>
+        <v>Terminado</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
-      <c r="C5" s="8" t="s">
-        <v>29</v>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="8" t="s">
-        <v>30</v>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="34" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="37">
+      <c r="I6" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="34" t="s">
-        <v>34</v>
+    <row r="7" spans="1:9" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="34">
+      <c r="I8" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -2392,238 +2604,593 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="str">
+        <f>VLOOKUP(Backlog!A3,Backlog!A2:H5,1,0)</f>
+        <v>REQ002</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f>VLOOKUP(Backlog!B3,Backlog!B2:I5,1,0)</f>
+        <v>Acceder a la página web</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f>VLOOKUP(Backlog!C3,Backlog!C2:J5,1,0)</f>
+        <v>Administrador</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f>VLOOKUP(Backlog!D3,Backlog!D2:K5,1,0)</f>
+        <v>Ingresar usuario/email y contraseña</v>
+      </c>
+      <c r="F10" s="5" t="str">
+        <f>VLOOKUP(Backlog!E3,Backlog!E2:L5,1,0)</f>
+        <v>Gestionar los productos del emprendimiento</v>
+      </c>
+      <c r="G10" s="5" t="e">
+        <f>VLOOKUP(Backlog!F3,Backlog!F2:M5,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>VLOOKUP(Backlog!G3,Backlog!G2:N5,1,0)</f>
+        <v>Alta</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f>VLOOKUP(Backlog!H3,Backlog!H2:O5,1,0)</f>
+        <v>Terminado</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
-      <c r="C11" s="8" t="s">
-        <v>29</v>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="str">
+        <f>VLOOKUP(Backlog!A4,Backlog!A2:H5,1,0)</f>
+        <v>REQ003</v>
+      </c>
+      <c r="C17" s="8" t="str">
+        <f>VLOOKUP(Backlog!B4,Backlog!B2:I5,1,0)</f>
+        <v>Registrar productos</v>
+      </c>
+      <c r="D17" s="8" t="str">
+        <f>VLOOKUP(Backlog!C4,Backlog!C2:J5,1,0)</f>
+        <v>Administrador</v>
+      </c>
+      <c r="E17" s="8" t="str">
+        <f>VLOOKUP(Backlog!D4,Backlog!D2:K5,1,0)</f>
+        <v>Iniciar sesión</v>
+      </c>
+      <c r="F17" s="8" t="str">
+        <f>VLOOKUP(Backlog!E4,Backlog!E2:L5,1,0)</f>
+        <v>Registrar un nuevo producto en el catálogo online</v>
+      </c>
+      <c r="G17" s="8" t="e">
+        <f>VLOOKUP(Backlog!F4,Backlog!F2:M5,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H17" s="8" t="str">
+        <f>VLOOKUP(Backlog!G4,Backlog!G2:N5,1,0)</f>
+        <v>Alta</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f>VLOOKUP(Backlog!H4,Backlog!H2:O5,1,0)</f>
+        <v>Terminado</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="8" t="s">
+      <c r="C19" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="C20" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24">
         <v>1</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="9" t="s">
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="s">
+      <c r="H23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="str">
+        <f>VLOOKUP(Backlog!A5,Backlog!A2:H5,1,0)</f>
+        <v>REQ004</v>
+      </c>
+      <c r="C24" s="8" t="str">
+        <f>VLOOKUP(Backlog!B5,Backlog!B2:I5,1,0)</f>
+        <v>Eliminar productos</v>
+      </c>
+      <c r="D24" s="8" t="str">
+        <f>VLOOKUP(Backlog!C5,Backlog!C2:J5,1,0)</f>
+        <v>Administrador</v>
+      </c>
+      <c r="E24" s="8" t="str">
+        <f>VLOOKUP(Backlog!D5,Backlog!D2:K5,1,0)</f>
+        <v>Iniciar sesión</v>
+      </c>
+      <c r="F24" s="8" t="str">
+        <f>VLOOKUP(Backlog!E5,Backlog!E2:L5,1,0)</f>
+        <v>Eliminar un producto del catálogo online</v>
+      </c>
+      <c r="G24" s="8" t="e">
+        <f>VLOOKUP(Backlog!F5,Backlog!F2:M5,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H24" s="8" t="str">
+        <f>VLOOKUP(Backlog!G5,Backlog!G2:N5,1,0)</f>
+        <v>Alta</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f>VLOOKUP(Backlog!H5,Backlog!H2:O5,1,0)</f>
+        <v>Terminado</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="H25" s="9"/>
+      <c r="I25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="10" t="s">
+    </row>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="11"/>
-      <c r="C17" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="I29" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="str">
+        <f>VLOOKUP(Backlog!A6,Backlog!A1:H7,1,0)</f>
+        <v>REQ005</v>
+      </c>
+      <c r="C30" s="8" t="str">
+        <f>VLOOKUP(Backlog!B6,Backlog!B1:I7,1,0)</f>
+        <v>Mostrar catalogo</v>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f>VLOOKUP(Backlog!C6,Backlog!C1:J7,1,0)</f>
+        <v>Administrador</v>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f>VLOOKUP(Backlog!D6,Backlog!D1:K7,1,0)</f>
+        <v>Iniciar sesión</v>
+      </c>
+      <c r="F30" s="8" t="str">
+        <f>VLOOKUP(Backlog!E6,Backlog!E1:L7,1,0)</f>
+        <v>Iniciar sesión y gestionar el catálogo de productos</v>
+      </c>
+      <c r="G30" s="8" t="e">
+        <f>VLOOKUP(Backlog!F6,Backlog!F1:M7,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H30" s="8" t="str">
+        <f>VLOOKUP(Backlog!G6,Backlog!G1:N7,1,0)</f>
+        <v>Alta</v>
+      </c>
+      <c r="I30" s="8" t="str">
+        <f>VLOOKUP(Backlog!H6,Backlog!H1:O7,1,0)</f>
+        <v>Terminado</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="9"/>
+      <c r="C31" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="8" t="str">
+        <f>VLOOKUP(Backlog!A7,Backlog!A6:H12,1,0)</f>
+        <v>REQ006</v>
+      </c>
+      <c r="C35" s="8" t="str">
+        <f>VLOOKUP(Backlog!B7,Backlog!B6:I12,1,0)</f>
+        <v>Crear categorias</v>
+      </c>
+      <c r="D35" s="8" t="str">
+        <f>VLOOKUP(Backlog!C7,Backlog!C6:J12,1,0)</f>
+        <v>Administrador</v>
+      </c>
+      <c r="E35" s="8" t="str">
+        <f>VLOOKUP(Backlog!D7,Backlog!D6:K12,1,0)</f>
+        <v>Iniciar sesión</v>
+      </c>
+      <c r="F35" s="8" t="str">
+        <f>VLOOKUP(Backlog!E7,Backlog!E6:L12,1,0)</f>
+        <v>Iniciar sesión y gestionar las categorias de productos</v>
+      </c>
+      <c r="G35" s="8" t="e">
+        <f>VLOOKUP(Backlog!F7,Backlog!F6:M12,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H35" s="8" t="str">
+        <f>VLOOKUP(Backlog!G7,Backlog!G6:N12,1,0)</f>
+        <v>Alta</v>
+      </c>
+      <c r="I35" s="8" t="str">
+        <f>VLOOKUP(Backlog!H7,Backlog!H6:O12,1,0)</f>
+        <v>Terminado</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="C36" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3576,18 +4143,23 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C17:F17"/>
+  <mergeCells count="10">
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C18:F18"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3596,10 +4168,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K1002"/>
+  <dimension ref="A1:P1003"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="65" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3611,375 +4183,686 @@
     <col min="5" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="str">
+        <f>VLOOKUP(sprint0!B6,sprint0!B6:I8,1,0)</f>
+        <v>REQ001-1</v>
+      </c>
+      <c r="C4" s="26">
         <v>4</v>
       </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
-        <v>1</v>
-      </c>
-      <c r="I4" s="14">
+      <c r="D4" s="12">
         <v>2</v>
       </c>
-      <c r="J4" s="14">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15">
+      <c r="E4" s="12">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
         <f>SUM(D4:J4)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="45">
-        <v>3</v>
-      </c>
-      <c r="D5" s="14">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="str">
+        <f>VLOOKUP(sprint0!B7,sprint0!B7:I9,1,0)</f>
+        <v>REQ001-2</v>
+      </c>
+      <c r="C5" s="26">
         <v>1</v>
       </c>
-      <c r="E5" s="14">
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <f>SUM(D5:J5)</f>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" ref="K5:K10" si="0">SUM(D5:J5)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="45">
+      <c r="B6" s="2" t="str">
+        <f>VLOOKUP(sprint0!B8,sprint0!B8:I10,1,0)</f>
+        <v>REQ001-3</v>
+      </c>
+      <c r="C6" s="26">
         <v>1</v>
       </c>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
         <v>1</v>
       </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <f t="shared" ref="K6:K10" si="0">SUM(D6:J6)</f>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="11">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>2</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="38">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="15">
+        <v>4</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2</v>
+      </c>
+      <c r="H10" s="16">
+        <v>2</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <f>SUM(D11:J11)</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="50"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <f>SUM(D12:J12)</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="18">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16">
+        <v>3</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" ref="K13:K17" si="1">SUM(D13:J13)</f>
+        <v>3</v>
+      </c>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="55">
+        <v>4</v>
+      </c>
+      <c r="D15" s="56">
+        <v>2</v>
+      </c>
+      <c r="E15" s="56">
+        <v>2</v>
+      </c>
+      <c r="F15" s="56">
+        <v>0</v>
+      </c>
+      <c r="G15" s="56">
+        <v>0</v>
+      </c>
+      <c r="H15" s="56">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="55">
+        <v>4</v>
+      </c>
+      <c r="D16" s="56">
+        <v>2</v>
+      </c>
+      <c r="E16" s="56">
+        <v>2</v>
+      </c>
+      <c r="F16" s="56">
+        <v>0</v>
+      </c>
+      <c r="G16" s="56">
+        <v>0</v>
+      </c>
+      <c r="H16" s="56">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+    </row>
+    <row r="17" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="55">
+        <v>1</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0</v>
+      </c>
+      <c r="F17" s="56">
+        <v>0</v>
+      </c>
+      <c r="G17" s="56">
+        <v>0</v>
+      </c>
+      <c r="H17" s="56">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C19" s="20">
+        <f>SUM(C4:C17)</f>
+        <v>32</v>
+      </c>
+      <c r="D19" s="20">
+        <f>C19-SUM(D4:D17)</f>
+        <v>21</v>
+      </c>
+      <c r="E19" s="20">
+        <f>D19-SUM(E4:E17)</f>
+        <v>12</v>
+      </c>
+      <c r="F19" s="20">
+        <f>E19-SUM(F4:F17)</f>
+        <v>10</v>
+      </c>
+      <c r="G19" s="20">
+        <f>F19-SUM(G4:G17)</f>
+        <v>7</v>
+      </c>
+      <c r="H19" s="20">
+        <f>G19-SUM(H4:H17)</f>
         <v>3</v>
       </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="13">
-        <v>2</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <v>0</v>
-      </c>
-      <c r="K8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="I19" s="20">
+        <f>H19-SUM(I4:I17)</f>
         <v>3</v>
       </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="E9" s="18">
-        <v>2</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
-        <v>0</v>
-      </c>
-      <c r="J9" s="19">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="22">
-        <v>2</v>
-      </c>
-      <c r="D10" s="18">
-        <v>2</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0</v>
-      </c>
-      <c r="I10" s="23">
-        <v>0</v>
-      </c>
-      <c r="J10" s="23">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="25">
-        <f>SUM(C4:C10)</f>
-        <v>18</v>
-      </c>
-      <c r="D13" s="25">
-        <f>C13-SUM(D4:D10)</f>
-        <v>14</v>
-      </c>
-      <c r="E13" s="26">
-        <f>D13-SUM(E4:E10)</f>
-        <v>11</v>
-      </c>
-      <c r="F13" s="25">
-        <f t="shared" ref="F13:J13" si="1">E13-SUM(F4:F8)</f>
-        <v>11</v>
-      </c>
-      <c r="G13" s="25">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H13" s="25">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I13" s="25">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="J13" s="25">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="25">
-        <f>SUM(C4:C10)</f>
-        <v>18</v>
-      </c>
-      <c r="D14" s="25">
-        <f>C14-(SUM(C4:C11)/7)</f>
-        <v>15.428571428571429</v>
-      </c>
-      <c r="E14" s="26">
-        <f>D14-(SUM(C4:C11)/7)</f>
-        <v>12.857142857142858</v>
-      </c>
-      <c r="F14" s="25">
-        <f>E14-(SUM(C4:C11)/7)</f>
-        <v>10.285714285714286</v>
-      </c>
-      <c r="G14" s="25">
-        <f>F14-(SUM(C4:C11)/7)</f>
-        <v>7.7142857142857153</v>
-      </c>
-      <c r="H14" s="25">
-        <f>G14-(SUM(C4:C11)/7)</f>
-        <v>5.1428571428571441</v>
-      </c>
-      <c r="I14" s="25">
-        <f>H14-(SUM(C4:C11)/7)</f>
-        <v>2.5714285714285725</v>
-      </c>
-      <c r="J14" s="25">
-        <f>I14-(SUM(C4:C11)/7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="28"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="28"/>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="J19" s="20">
+        <f>I19-SUM(J4:J17)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+    </row>
+    <row r="20" spans="2:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="20">
+        <f>SUM(C4:C17)</f>
+        <v>32</v>
+      </c>
+      <c r="D20" s="20">
+        <f>C20-(SUM(C4:C17)/7)</f>
+        <v>27.428571428571431</v>
+      </c>
+      <c r="E20" s="20">
+        <f>D20-(SUM(C4:C17)/7)</f>
+        <v>22.857142857142861</v>
+      </c>
+      <c r="F20" s="20">
+        <f>E20-(SUM(C4:C17)/7)</f>
+        <v>18.285714285714292</v>
+      </c>
+      <c r="G20" s="20">
+        <f>F20-(SUM(C4:C17)/7)</f>
+        <v>13.714285714285721</v>
+      </c>
+      <c r="H20" s="20">
+        <f>G20-(SUM(C4:C17)/7)</f>
+        <v>9.1428571428571495</v>
+      </c>
+      <c r="I20" s="20">
+        <f>H20-(SUM(C4:C17)/7)</f>
+        <v>4.5714285714285783</v>
+      </c>
+      <c r="J20" s="20">
+        <f>I20-(SUM(C4:C17)/7)</f>
+        <v>7.1054273576010019E-15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="N21" s="50"/>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M23" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+    </row>
+    <row r="24" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+    </row>
+    <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+    </row>
+    <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+    </row>
+    <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+    </row>
+    <row r="29" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+    </row>
+    <row r="30" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+    </row>
+    <row r="31" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4950,12 +5833,19 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
+  <mergeCells count="4">
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:P19"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M23:P30"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
+  <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
